--- a/biology/Histoire de la zoologie et de la botanique/Journal_of_Raptor_Research/Journal_of_Raptor_Research.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Journal_of_Raptor_Research/Journal_of_Raptor_Research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Journal of Raptor Research est une publication arbitrée de la société Raptor Research Foundation.  La revue publie des articles sur tous les aspects de la biologie des rapaces diurnes et nocturnes. 
